--- a/Planilhas Excel/fuzzy_error_maxmin.xlsx
+++ b/Planilhas Excel/fuzzy_error_maxmin.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="max_min" sheetId="1" r:id="rId1"/>
+    <sheet name="valores_saida_MATLAB" sheetId="3" r:id="rId1"/>
     <sheet name="valores_erro" sheetId="2" r:id="rId2"/>
+    <sheet name="max_min" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Valor</t>
   </si>
@@ -111,13 +112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,10 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,6 +436,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,9 +772,2168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B2" s="26"/>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>16</v>
+      </c>
+      <c r="E2" s="31">
+        <v>32</v>
+      </c>
+      <c r="F2" s="31">
+        <v>48</v>
+      </c>
+      <c r="G2" s="31">
+        <v>64</v>
+      </c>
+      <c r="H2" s="31">
+        <v>80</v>
+      </c>
+      <c r="I2" s="31">
+        <v>96</v>
+      </c>
+      <c r="J2" s="31">
+        <v>112</v>
+      </c>
+      <c r="K2" s="31">
+        <v>128</v>
+      </c>
+      <c r="L2" s="31">
+        <v>144</v>
+      </c>
+      <c r="M2" s="31">
+        <v>160</v>
+      </c>
+      <c r="N2" s="31">
+        <v>176</v>
+      </c>
+      <c r="O2" s="31">
+        <v>192</v>
+      </c>
+      <c r="P2" s="31">
+        <v>208</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>224</v>
+      </c>
+      <c r="R2" s="31">
+        <v>240</v>
+      </c>
+      <c r="S2" s="31">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>1</v>
+      </c>
+      <c r="M3" s="27">
+        <v>6.4782608695652177</v>
+      </c>
+      <c r="N3" s="27">
+        <v>23.199482312338226</v>
+      </c>
+      <c r="O3" s="27">
+        <v>46.430398623885289</v>
+      </c>
+      <c r="P3" s="27">
+        <v>71.398900963324337</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>97.312839816493309</v>
+      </c>
+      <c r="R3" s="27">
+        <v>118.71052631578948</v>
+      </c>
+      <c r="S3" s="27">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="29">
+        <v>16</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1.881118881118881</v>
+      </c>
+      <c r="F4" s="27">
+        <v>9.9419354838709673</v>
+      </c>
+      <c r="G4" s="27">
+        <v>9.9419354838709673</v>
+      </c>
+      <c r="H4" s="27">
+        <v>10.358503382876393</v>
+      </c>
+      <c r="I4" s="27">
+        <v>10.815780098892798</v>
+      </c>
+      <c r="J4" s="27">
+        <v>9.9419354838709673</v>
+      </c>
+      <c r="K4" s="27">
+        <v>9.9419354838709673</v>
+      </c>
+      <c r="L4" s="27">
+        <v>9.9419354838709673</v>
+      </c>
+      <c r="M4" s="27">
+        <v>19.830613393359595</v>
+      </c>
+      <c r="N4" s="27">
+        <v>36.863902123351458</v>
+      </c>
+      <c r="O4" s="27">
+        <v>58.483038855896687</v>
+      </c>
+      <c r="P4" s="27">
+        <v>82.187101369045479</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>106.73475020662795</v>
+      </c>
+      <c r="R4" s="27">
+        <v>127.72213219616205</v>
+      </c>
+      <c r="S4" s="27">
+        <v>136.01290322580644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="29">
+        <v>32</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1.881118881118881</v>
+      </c>
+      <c r="F5" s="27">
+        <v>16.238116294494805</v>
+      </c>
+      <c r="G5" s="27">
+        <v>30.532846715328471</v>
+      </c>
+      <c r="H5" s="27">
+        <v>31.657434417148611</v>
+      </c>
+      <c r="I5" s="27">
+        <v>32.871059430159399</v>
+      </c>
+      <c r="J5" s="27">
+        <v>30.532846715328471</v>
+      </c>
+      <c r="K5" s="27">
+        <v>30.532846715328471</v>
+      </c>
+      <c r="L5" s="27">
+        <v>30.532846715328471</v>
+      </c>
+      <c r="M5" s="27">
+        <v>38.048094050587821</v>
+      </c>
+      <c r="N5" s="27">
+        <v>61.974859295380597</v>
+      </c>
+      <c r="O5" s="27">
+        <v>87.552149759732814</v>
+      </c>
+      <c r="P5" s="27">
+        <v>108.11115041976527</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>129.28974995254106</v>
+      </c>
+      <c r="R5" s="27">
+        <v>148.7984782632258</v>
+      </c>
+      <c r="S5" s="27">
+        <v>156.76723438767237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="29">
+        <v>48</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1.881118881118881</v>
+      </c>
+      <c r="F6" s="27">
+        <v>16.238116294494805</v>
+      </c>
+      <c r="G6" s="27">
+        <v>36.554793283986285</v>
+      </c>
+      <c r="H6" s="27">
+        <v>47.286952936529552</v>
+      </c>
+      <c r="I6" s="27">
+        <v>48.809044066291328</v>
+      </c>
+      <c r="J6" s="27">
+        <v>45.85878875161071</v>
+      </c>
+      <c r="K6" s="27">
+        <v>45.85878875161071</v>
+      </c>
+      <c r="L6" s="27">
+        <v>45.85878875161071</v>
+      </c>
+      <c r="M6" s="27">
+        <v>51.778169791994436</v>
+      </c>
+      <c r="N6" s="27">
+        <v>71.054978189533557</v>
+      </c>
+      <c r="O6" s="27">
+        <v>102.95074931962036</v>
+      </c>
+      <c r="P6" s="27">
+        <v>128.45196957556556</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>146.9027150400841</v>
+      </c>
+      <c r="R6" s="27">
+        <v>164.78698057462191</v>
+      </c>
+      <c r="S6" s="27">
+        <v>172.21481088455999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="29">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2.100086116357792</v>
+      </c>
+      <c r="F7" s="27">
+        <v>19.497477025095808</v>
+      </c>
+      <c r="G7" s="27">
+        <v>42.530388141286778</v>
+      </c>
+      <c r="H7" s="27">
+        <v>57.435008296785341</v>
+      </c>
+      <c r="I7" s="27">
+        <v>64.749425434116446</v>
+      </c>
+      <c r="J7" s="27">
+        <v>64.749425434116446</v>
+      </c>
+      <c r="K7" s="27">
+        <v>64.749425434116446</v>
+      </c>
+      <c r="L7" s="27">
+        <v>64.749425434116446</v>
+      </c>
+      <c r="M7" s="27">
+        <v>70.04066907367708</v>
+      </c>
+      <c r="N7" s="27">
+        <v>87.308231035049104</v>
+      </c>
+      <c r="O7" s="32">
+        <v>106.38935979069339</v>
+      </c>
+      <c r="P7" s="27">
+        <v>136.85199985453272</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>162.50552170153566</v>
+      </c>
+      <c r="R7" s="27">
+        <v>183.13879941304609</v>
+      </c>
+      <c r="S7" s="27">
+        <v>191.25537325502214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="29">
+        <v>80</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1.881118881118881</v>
+      </c>
+      <c r="F8" s="27">
+        <v>16.238116294494805</v>
+      </c>
+      <c r="G8" s="27">
+        <v>36.554793283986285</v>
+      </c>
+      <c r="H8" s="27">
+        <v>52.057270798962996</v>
+      </c>
+      <c r="I8" s="27">
+        <v>72.171341032288481</v>
+      </c>
+      <c r="J8" s="27">
+        <v>84.393302692055158</v>
+      </c>
+      <c r="K8" s="27">
+        <v>84.393302692055158</v>
+      </c>
+      <c r="L8" s="27">
+        <v>84.393302692055158</v>
+      </c>
+      <c r="M8" s="27">
+        <v>89.346757837399323</v>
+      </c>
+      <c r="N8" s="27">
+        <v>105.4239552673082</v>
+      </c>
+      <c r="O8" s="27">
+        <v>122.63906441369102</v>
+      </c>
+      <c r="P8" s="27">
+        <v>139.70628653193154</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>174.19480846036441</v>
+      </c>
+      <c r="R8" s="27">
+        <v>201.70064414657205</v>
+      </c>
+      <c r="S8" s="27">
+        <v>211.05515430072228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="29">
+        <v>96</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1.881118881118881</v>
+      </c>
+      <c r="F9" s="27">
+        <v>16.238116294494805</v>
+      </c>
+      <c r="G9" s="27">
+        <v>36.554793283986285</v>
+      </c>
+      <c r="H9" s="27">
+        <v>52.057270798962996</v>
+      </c>
+      <c r="I9" s="27">
+        <v>72.171341032288481</v>
+      </c>
+      <c r="J9" s="27">
+        <v>88.437996334758694</v>
+      </c>
+      <c r="K9" s="27">
+        <v>102.5251798561151</v>
+      </c>
+      <c r="L9" s="27">
+        <v>102.5251798561151</v>
+      </c>
+      <c r="M9" s="27">
+        <v>107.8769716088328</v>
+      </c>
+      <c r="N9" s="27">
+        <v>124.79102704842802</v>
+      </c>
+      <c r="O9" s="27">
+        <v>144.81324563103749</v>
+      </c>
+      <c r="P9" s="27">
+        <v>165.38385755553455</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>186.6025302663127</v>
+      </c>
+      <c r="R9" s="27">
+        <v>217.07038066928757</v>
+      </c>
+      <c r="S9" s="27">
+        <v>229.33093525179856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="29">
+        <v>112</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1.881118881118881</v>
+      </c>
+      <c r="F10" s="27">
+        <v>16.238116294494805</v>
+      </c>
+      <c r="G10" s="27">
+        <v>36.554793283986285</v>
+      </c>
+      <c r="H10" s="27">
+        <v>52.057270798962996</v>
+      </c>
+      <c r="I10" s="27">
+        <v>72.171341032288481</v>
+      </c>
+      <c r="J10" s="27">
+        <v>88.437996334758694</v>
+      </c>
+      <c r="K10" s="27">
+        <v>107.2853505887345</v>
+      </c>
+      <c r="L10" s="27">
+        <v>123.54794520547946</v>
+      </c>
+      <c r="M10" s="27">
+        <v>130.55472467709041</v>
+      </c>
+      <c r="N10" s="27">
+        <v>147.46049170089145</v>
+      </c>
+      <c r="O10" s="27">
+        <v>170.61825811000742</v>
+      </c>
+      <c r="P10" s="27">
+        <v>195.42094322254229</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>221.15046444433025</v>
+      </c>
+      <c r="R10" s="27">
+        <v>242.06997324552378</v>
+      </c>
+      <c r="S10" s="27">
+        <v>252.015625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="29">
+        <v>128</v>
+      </c>
+      <c r="C11" s="27">
+        <v>13.460402133771032</v>
+      </c>
+      <c r="D11" s="27">
+        <v>13.460402133771032</v>
+      </c>
+      <c r="E11" s="27">
+        <v>14.977200287150037</v>
+      </c>
+      <c r="F11" s="27">
+        <v>36.147398832253941</v>
+      </c>
+      <c r="G11" s="27">
+        <v>52.433599809783068</v>
+      </c>
+      <c r="H11" s="27">
+        <v>65.014029112685407</v>
+      </c>
+      <c r="I11" s="27">
+        <v>83.837569363824741</v>
+      </c>
+      <c r="J11" s="27">
+        <v>100.15452816864273</v>
+      </c>
+      <c r="K11" s="27">
+        <v>119.71647215303975</v>
+      </c>
+      <c r="L11" s="27">
+        <v>136.12926462216561</v>
+      </c>
+      <c r="M11" s="27">
+        <v>139.55929421419779</v>
+      </c>
+      <c r="N11" s="27">
+        <v>149.37566867989648</v>
+      </c>
+      <c r="O11" s="27">
+        <v>172.79095734312244</v>
+      </c>
+      <c r="P11" s="27">
+        <v>197.95762239954121</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>224.07722743408451</v>
+      </c>
+      <c r="R11" s="27">
+        <v>245.64473684210529</v>
+      </c>
+      <c r="S11" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="29">
+        <v>144</v>
+      </c>
+      <c r="C12" s="27">
+        <v>36.289913670637084</v>
+      </c>
+      <c r="D12" s="27">
+        <v>36.289913670637084</v>
+      </c>
+      <c r="E12" s="27">
+        <v>37.38810747073191</v>
+      </c>
+      <c r="F12" s="27">
+        <v>55.909491274534972</v>
+      </c>
+      <c r="G12" s="27">
+        <v>82.938758589605897</v>
+      </c>
+      <c r="H12" s="27">
+        <v>91.541198324307146</v>
+      </c>
+      <c r="I12" s="27">
+        <v>107.72255706821979</v>
+      </c>
+      <c r="J12" s="27">
+        <v>123.6337226502914</v>
+      </c>
+      <c r="K12" s="27">
+        <v>143.53617937733279</v>
+      </c>
+      <c r="L12" s="27">
+        <v>159.35856400013876</v>
+      </c>
+      <c r="M12" s="27">
+        <v>162.56999235056279</v>
+      </c>
+      <c r="N12" s="27">
+        <v>162.56999235056279</v>
+      </c>
+      <c r="O12" s="27">
+        <v>172.79095734312244</v>
+      </c>
+      <c r="P12" s="27">
+        <v>197.95762239954121</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>224.07722743408451</v>
+      </c>
+      <c r="R12" s="27">
+        <v>245.64473684210529</v>
+      </c>
+      <c r="S12" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="29">
+        <v>160</v>
+      </c>
+      <c r="C13" s="27">
+        <v>55.1506959334654</v>
+      </c>
+      <c r="D13" s="27">
+        <v>55.1506959334654</v>
+      </c>
+      <c r="E13" s="27">
+        <v>56.047116660990376</v>
+      </c>
+      <c r="F13" s="27">
+        <v>71.312443529106474</v>
+      </c>
+      <c r="G13" s="27">
+        <v>95.274176070377351</v>
+      </c>
+      <c r="H13" s="32">
+        <v>113.63243795448129</v>
+      </c>
+      <c r="I13" s="32">
+        <v>125.71778224924712</v>
+      </c>
+      <c r="J13" s="27">
+        <v>141.68341988864208</v>
+      </c>
+      <c r="K13" s="27">
+        <v>162.33681032862629</v>
+      </c>
+      <c r="L13" s="27">
+        <v>178.36765752774625</v>
+      </c>
+      <c r="M13" s="27">
+        <v>181.58046336150881</v>
+      </c>
+      <c r="N13" s="27">
+        <v>181.58046336150881</v>
+      </c>
+      <c r="O13" s="27">
+        <v>185.1076263435651</v>
+      </c>
+      <c r="P13" s="27">
+        <v>197.95762239954121</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>223.41435227081237</v>
+      </c>
+      <c r="R13" s="27">
+        <v>244.65641285369654</v>
+      </c>
+      <c r="S13" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="29">
+        <v>176</v>
+      </c>
+      <c r="C14" s="27">
+        <v>76.781298706660735</v>
+      </c>
+      <c r="D14" s="27">
+        <v>76.781298706660735</v>
+      </c>
+      <c r="E14" s="27">
+        <v>77.569861324491129</v>
+      </c>
+      <c r="F14" s="27">
+        <v>91.012663994083809</v>
+      </c>
+      <c r="G14" s="27">
+        <v>112.1679024052544</v>
+      </c>
+      <c r="H14" s="32">
+        <v>128.46229737866815</v>
+      </c>
+      <c r="I14" s="32">
+        <v>143.02061390309962</v>
+      </c>
+      <c r="J14" s="32">
+        <v>159.12321025219066</v>
+      </c>
+      <c r="K14" s="27">
+        <v>182.06672141633953</v>
+      </c>
+      <c r="L14" s="27">
+        <v>199.82805308042089</v>
+      </c>
+      <c r="M14" s="27">
+        <v>203.38273758528501</v>
+      </c>
+      <c r="N14" s="27">
+        <v>203.38273758528501</v>
+      </c>
+      <c r="O14" s="27">
+        <v>197.84998819501826</v>
+      </c>
+      <c r="P14" s="27">
+        <v>197.95762239954121</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>224.07722743408451</v>
+      </c>
+      <c r="R14" s="27">
+        <v>245.21494856077265</v>
+      </c>
+      <c r="S14" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="29">
+        <v>192</v>
+      </c>
+      <c r="C15" s="27">
+        <v>93.0260844910689</v>
+      </c>
+      <c r="D15" s="27">
+        <v>93.0260844910689</v>
+      </c>
+      <c r="E15" s="27">
+        <v>93.849804334439128</v>
+      </c>
+      <c r="F15" s="27">
+        <v>107.72395937281142</v>
+      </c>
+      <c r="G15" s="27">
+        <v>128.93413275832648</v>
+      </c>
+      <c r="H15" s="27">
+        <v>145.20452526867393</v>
+      </c>
+      <c r="I15" s="27">
+        <v>161.6787680966338</v>
+      </c>
+      <c r="J15" s="27">
+        <v>171.46126290481399</v>
+      </c>
+      <c r="K15" s="27">
+        <v>193.65649816066568</v>
+      </c>
+      <c r="L15" s="27">
+        <v>215.34655220312325</v>
+      </c>
+      <c r="M15" s="27">
+        <v>219.75645024099799</v>
+      </c>
+      <c r="N15" s="27">
+        <v>219.75645024099799</v>
+      </c>
+      <c r="O15" s="27">
+        <v>213.63563574400786</v>
+      </c>
+      <c r="P15" s="27">
+        <v>209.30035458029394</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>224.07722743408451</v>
+      </c>
+      <c r="R15" s="27">
+        <v>245.64473684210529</v>
+      </c>
+      <c r="S15" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="29">
+        <v>208</v>
+      </c>
+      <c r="C16" s="27">
+        <v>114.47488637687916</v>
+      </c>
+      <c r="D16" s="27">
+        <v>114.47488637687916</v>
+      </c>
+      <c r="E16" s="27">
+        <v>115.35420761194884</v>
+      </c>
+      <c r="F16" s="27">
+        <v>129.85625575951062</v>
+      </c>
+      <c r="G16" s="27">
+        <v>150.95577887010649</v>
+      </c>
+      <c r="H16" s="27">
+        <v>167.01497128444589</v>
+      </c>
+      <c r="I16" s="27">
+        <v>185.98088754068746</v>
+      </c>
+      <c r="J16" s="27">
+        <v>199.89703888707453</v>
+      </c>
+      <c r="K16" s="27">
+        <v>214.27168626745012</v>
+      </c>
+      <c r="L16" s="27">
+        <v>235.42830318853481</v>
+      </c>
+      <c r="M16" s="27">
+        <v>241.37548071320359</v>
+      </c>
+      <c r="N16" s="27">
+        <v>241.37548071320359</v>
+      </c>
+      <c r="O16" s="27">
+        <v>238.4720288614505</v>
+      </c>
+      <c r="P16" s="27">
+        <v>236.25798935984744</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>240.29757631576697</v>
+      </c>
+      <c r="R16" s="27">
+        <v>245.64473684210529</v>
+      </c>
+      <c r="S16" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="29">
+        <v>224</v>
+      </c>
+      <c r="C17" s="27">
+        <v>127</v>
+      </c>
+      <c r="D17" s="27">
+        <v>127</v>
+      </c>
+      <c r="E17" s="27">
+        <v>127.88811188811189</v>
+      </c>
+      <c r="F17" s="27">
+        <v>142.35905372540347</v>
+      </c>
+      <c r="G17" s="27">
+        <v>162.83697418306556</v>
+      </c>
+      <c r="H17" s="27">
+        <v>178.46248723387538</v>
+      </c>
+      <c r="I17" s="27">
+        <v>198.73619294524318</v>
+      </c>
+      <c r="J17" s="27">
+        <v>215.13194868662185</v>
+      </c>
+      <c r="K17" s="27">
+        <v>234.12888511721656</v>
+      </c>
+      <c r="L17" s="27">
+        <v>250.52054794520549</v>
+      </c>
+      <c r="M17" s="27">
+        <v>254</v>
+      </c>
+      <c r="N17" s="27">
+        <v>254</v>
+      </c>
+      <c r="O17" s="27">
+        <v>254</v>
+      </c>
+      <c r="P17" s="27">
+        <v>254.00000000000003</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>254</v>
+      </c>
+      <c r="R17" s="27">
+        <v>254</v>
+      </c>
+      <c r="S17" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="29">
+        <v>240</v>
+      </c>
+      <c r="C18" s="27">
+        <v>127</v>
+      </c>
+      <c r="D18" s="27">
+        <v>127</v>
+      </c>
+      <c r="E18" s="27">
+        <v>127.88811188811189</v>
+      </c>
+      <c r="F18" s="27">
+        <v>142.35905372540347</v>
+      </c>
+      <c r="G18" s="27">
+        <v>162.83697418306556</v>
+      </c>
+      <c r="H18" s="27">
+        <v>178.46248723387538</v>
+      </c>
+      <c r="I18" s="27">
+        <v>198.73619294524318</v>
+      </c>
+      <c r="J18" s="27">
+        <v>215.13194868662185</v>
+      </c>
+      <c r="K18" s="27">
+        <v>234.12888511721656</v>
+      </c>
+      <c r="L18" s="27">
+        <v>250.52054794520549</v>
+      </c>
+      <c r="M18" s="27">
+        <v>254</v>
+      </c>
+      <c r="N18" s="27">
+        <v>254</v>
+      </c>
+      <c r="O18" s="27">
+        <v>254</v>
+      </c>
+      <c r="P18" s="27">
+        <v>254.00000000000003</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>254</v>
+      </c>
+      <c r="R18" s="27">
+        <v>254</v>
+      </c>
+      <c r="S18" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="29">
+        <v>254</v>
+      </c>
+      <c r="C19" s="27">
+        <v>127</v>
+      </c>
+      <c r="D19" s="27">
+        <v>127</v>
+      </c>
+      <c r="E19" s="27">
+        <v>127.88811188811189</v>
+      </c>
+      <c r="F19" s="27">
+        <v>142.35905372540347</v>
+      </c>
+      <c r="G19" s="27">
+        <v>162.83697418306556</v>
+      </c>
+      <c r="H19" s="27">
+        <v>178.46248723387538</v>
+      </c>
+      <c r="I19" s="27">
+        <v>198.73619294524318</v>
+      </c>
+      <c r="J19" s="27">
+        <v>215.13194868662185</v>
+      </c>
+      <c r="K19" s="27">
+        <v>234.12888511721656</v>
+      </c>
+      <c r="L19" s="27">
+        <v>250.52054794520549</v>
+      </c>
+      <c r="M19" s="27">
+        <v>254</v>
+      </c>
+      <c r="N19" s="27">
+        <v>254</v>
+      </c>
+      <c r="O19" s="27">
+        <v>254</v>
+      </c>
+      <c r="P19" s="27">
+        <v>254.00000000000003</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>254</v>
+      </c>
+      <c r="R19" s="27">
+        <v>254</v>
+      </c>
+      <c r="S19" s="27">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="J22" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="A3:A19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="19" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B2" s="26"/>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>16</v>
+      </c>
+      <c r="E2" s="31">
+        <v>32</v>
+      </c>
+      <c r="F2" s="31">
+        <v>48</v>
+      </c>
+      <c r="G2" s="31">
+        <v>64</v>
+      </c>
+      <c r="H2" s="31">
+        <v>80</v>
+      </c>
+      <c r="I2" s="31">
+        <v>96</v>
+      </c>
+      <c r="J2" s="31">
+        <v>112</v>
+      </c>
+      <c r="K2" s="31">
+        <v>128</v>
+      </c>
+      <c r="L2" s="31">
+        <v>144</v>
+      </c>
+      <c r="M2" s="31">
+        <v>160</v>
+      </c>
+      <c r="N2" s="31">
+        <v>176</v>
+      </c>
+      <c r="O2" s="31">
+        <v>192</v>
+      </c>
+      <c r="P2" s="31">
+        <v>208</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>224</v>
+      </c>
+      <c r="R2" s="31">
+        <v>240</v>
+      </c>
+      <c r="S2" s="31">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>-0.47826086956521774</v>
+      </c>
+      <c r="N3" s="27">
+        <v>-0.19948231233822611</v>
+      </c>
+      <c r="O3" s="27">
+        <v>-0.4303986238852886</v>
+      </c>
+      <c r="P3" s="27">
+        <v>-0.398900963324337</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>-0.31283981649330883</v>
+      </c>
+      <c r="R3" s="27">
+        <v>-0.71052631578947967</v>
+      </c>
+      <c r="S3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="29">
+        <v>16</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="G4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-0.35850338287639261</v>
+      </c>
+      <c r="I4" s="27">
+        <v>-0.81578009889279812</v>
+      </c>
+      <c r="J4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="K4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="L4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="M4" s="27">
+        <v>-0.83061339335959516</v>
+      </c>
+      <c r="N4" s="27">
+        <v>-0.86390212335145833</v>
+      </c>
+      <c r="O4" s="27">
+        <v>-0.48303885589668738</v>
+      </c>
+      <c r="P4" s="27">
+        <v>-0.1871013690454788</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>-0.73475020662795032</v>
+      </c>
+      <c r="R4" s="27">
+        <v>-0.72213219616205038</v>
+      </c>
+      <c r="S4" s="27">
+        <v>-1.0129032258064399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="29">
+        <v>32</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F5" s="27">
+        <v>-0.2381162944948052</v>
+      </c>
+      <c r="G5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="H5" s="27">
+        <v>-0.65743441714861106</v>
+      </c>
+      <c r="I5" s="27">
+        <v>-0.87105943015939857</v>
+      </c>
+      <c r="J5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="K5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="L5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="M5" s="27">
+        <v>-1.0480940505878209</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-0.97485929538059679</v>
+      </c>
+      <c r="O5" s="27">
+        <v>-0.55214975973281355</v>
+      </c>
+      <c r="P5" s="27">
+        <v>-0.11115041976526641</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>-0.28974995254105806</v>
+      </c>
+      <c r="R5" s="27">
+        <v>-0.79847826322580318</v>
+      </c>
+      <c r="S5" s="27">
+        <v>-0.7672343876723744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="29">
+        <v>48</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F6" s="27">
+        <v>-0.2381162944948052</v>
+      </c>
+      <c r="G6" s="27">
+        <v>-0.55479328398628525</v>
+      </c>
+      <c r="H6" s="27">
+        <v>-0.28695293652955201</v>
+      </c>
+      <c r="I6" s="27">
+        <v>-0.80904406629132808</v>
+      </c>
+      <c r="J6" s="27">
+        <v>-0.85878875161071022</v>
+      </c>
+      <c r="K6" s="27">
+        <v>-0.85878875161071022</v>
+      </c>
+      <c r="L6" s="27">
+        <v>-0.85878875161071022</v>
+      </c>
+      <c r="M6" s="27">
+        <v>-0.77816979199443637</v>
+      </c>
+      <c r="N6" s="27">
+        <v>-1.054978189533557</v>
+      </c>
+      <c r="O6" s="27">
+        <v>-0.95074931962035691</v>
+      </c>
+      <c r="P6" s="27">
+        <v>-0.45196957556555617</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>-0.90271504008410375</v>
+      </c>
+      <c r="R6" s="27">
+        <v>-0.78698057462190718</v>
+      </c>
+      <c r="S6" s="27">
+        <v>-0.21481088455999497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="29">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>-1.100086116357792</v>
+      </c>
+      <c r="F7" s="27">
+        <v>-0.49747702509580805</v>
+      </c>
+      <c r="G7" s="27">
+        <v>-0.53038814128677814</v>
+      </c>
+      <c r="H7" s="27">
+        <v>-0.43500829678534103</v>
+      </c>
+      <c r="I7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="J7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="K7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="L7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="M7" s="27">
+        <v>-1.0406690736770798</v>
+      </c>
+      <c r="N7" s="27">
+        <v>-0.30823103504910421</v>
+      </c>
+      <c r="O7" s="32">
+        <v>-0.38935979069339055</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0.1480001454672788</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>-0.50552170153565612</v>
+      </c>
+      <c r="R7" s="27">
+        <v>-0.13879941304608678</v>
+      </c>
+      <c r="S7" s="27">
+        <v>-0.25537325502213548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="29">
+        <v>80</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-0.2381162944948052</v>
+      </c>
+      <c r="G8" s="27">
+        <v>-0.55479328398628525</v>
+      </c>
+      <c r="H8" s="27">
+        <v>-1.0572707989629961</v>
+      </c>
+      <c r="I8" s="27">
+        <v>-0.17134103228848119</v>
+      </c>
+      <c r="J8" s="27">
+        <v>-0.39330269205515833</v>
+      </c>
+      <c r="K8" s="27">
+        <v>-0.39330269205515833</v>
+      </c>
+      <c r="L8" s="27">
+        <v>-0.39330269205515833</v>
+      </c>
+      <c r="M8" s="27">
+        <v>-0.34675783739932342</v>
+      </c>
+      <c r="N8" s="27">
+        <v>-0.42395526730820166</v>
+      </c>
+      <c r="O8" s="27">
+        <v>-0.63906441369101685</v>
+      </c>
+      <c r="P8" s="27">
+        <v>-0.70628653193153923</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>-0.19480846036441335</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0.29935585342795434</v>
+      </c>
+      <c r="S8" s="27">
+        <v>-5.5154300722279004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="29">
+        <v>96</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F9" s="27">
+        <v>-0.2381162944948052</v>
+      </c>
+      <c r="G9" s="27">
+        <v>-0.55479328398628525</v>
+      </c>
+      <c r="H9" s="27">
+        <v>-1.0572707989629961</v>
+      </c>
+      <c r="I9" s="27">
+        <v>-0.17134103228848119</v>
+      </c>
+      <c r="J9" s="27">
+        <v>-0.43799633475869371</v>
+      </c>
+      <c r="K9" s="27">
+        <v>-0.52517985611510198</v>
+      </c>
+      <c r="L9" s="27">
+        <v>-0.52517985611510198</v>
+      </c>
+      <c r="M9" s="27">
+        <v>-0.87697160883280389</v>
+      </c>
+      <c r="N9" s="27">
+        <v>-0.79102704842802041</v>
+      </c>
+      <c r="O9" s="27">
+        <v>-0.81324563103748915</v>
+      </c>
+      <c r="P9" s="27">
+        <v>-0.38385755553454715</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>-0.6025302663126979</v>
+      </c>
+      <c r="R9" s="27">
+        <v>-7.0380669287573028E-2</v>
+      </c>
+      <c r="S9" s="27">
+        <v>-0.33093525179856442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="29">
+        <v>112</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F10" s="27">
+        <v>-0.2381162944948052</v>
+      </c>
+      <c r="G10" s="27">
+        <v>-0.55479328398628525</v>
+      </c>
+      <c r="H10" s="27">
+        <v>-1.0572707989629961</v>
+      </c>
+      <c r="I10" s="27">
+        <v>-0.17134103228848119</v>
+      </c>
+      <c r="J10" s="27">
+        <v>-0.43799633475869371</v>
+      </c>
+      <c r="K10" s="27">
+        <v>-0.28535058873450225</v>
+      </c>
+      <c r="L10" s="27">
+        <v>-0.5479452054794649</v>
+      </c>
+      <c r="M10" s="27">
+        <v>-0.55472467709040529</v>
+      </c>
+      <c r="N10" s="27">
+        <v>-0.46049170089145264</v>
+      </c>
+      <c r="O10" s="27">
+        <v>-0.61825811000741737</v>
+      </c>
+      <c r="P10" s="27">
+        <v>-0.42094322254229155</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>-0.15046444433025385</v>
+      </c>
+      <c r="R10" s="27">
+        <v>-6.9973245523783589E-2</v>
+      </c>
+      <c r="S10" s="27">
+        <v>-1.5625E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="29">
+        <v>128</v>
+      </c>
+      <c r="C11" s="27">
+        <v>-0.46040213377103179</v>
+      </c>
+      <c r="D11" s="27">
+        <v>-0.46040213377103179</v>
+      </c>
+      <c r="E11" s="27">
+        <v>-0.97720028715003693</v>
+      </c>
+      <c r="F11" s="27">
+        <v>-1.1473988322539412</v>
+      </c>
+      <c r="G11" s="27">
+        <v>-0.43359980978306822</v>
+      </c>
+      <c r="H11" s="27">
+        <v>-1.0140291126854066</v>
+      </c>
+      <c r="I11" s="27">
+        <v>-0.83756936382474123</v>
+      </c>
+      <c r="J11" s="27">
+        <v>-0.15452816864272734</v>
+      </c>
+      <c r="K11" s="27">
+        <v>-0.71647215303974576</v>
+      </c>
+      <c r="L11" s="27">
+        <v>-0.12926462216560708</v>
+      </c>
+      <c r="M11" s="27">
+        <v>-0.55929421419779146</v>
+      </c>
+      <c r="N11" s="27">
+        <v>-0.3756686798964779</v>
+      </c>
+      <c r="O11" s="27">
+        <v>-0.79095734312244304</v>
+      </c>
+      <c r="P11" s="27">
+        <v>4.2377600458792131E-2</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>-7.722743408450583E-2</v>
+      </c>
+      <c r="R11" s="27">
+        <v>-0.64473684210528859</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="29">
+        <v>144</v>
+      </c>
+      <c r="C12" s="27">
+        <v>-0.28991367063708395</v>
+      </c>
+      <c r="D12" s="27">
+        <v>-0.28991367063708395</v>
+      </c>
+      <c r="E12" s="27">
+        <v>-0.3881074707319101</v>
+      </c>
+      <c r="F12" s="27">
+        <v>-0.90949127453497169</v>
+      </c>
+      <c r="G12" s="27">
+        <v>-0.93875858960589653</v>
+      </c>
+      <c r="H12" s="27">
+        <v>-0.54119832430714609</v>
+      </c>
+      <c r="I12" s="27">
+        <v>-0.72255706821978549</v>
+      </c>
+      <c r="J12" s="27">
+        <v>-0.63372265029140351</v>
+      </c>
+      <c r="K12" s="27">
+        <v>-0.53617937733278609</v>
+      </c>
+      <c r="L12" s="27">
+        <v>-0.358564000138756</v>
+      </c>
+      <c r="M12" s="27">
+        <v>-0.56999235056278508</v>
+      </c>
+      <c r="N12" s="27">
+        <v>-0.56999235056278508</v>
+      </c>
+      <c r="O12" s="27">
+        <v>-0.79095734312244304</v>
+      </c>
+      <c r="P12" s="27">
+        <v>4.2377600458792131E-2</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>-7.722743408450583E-2</v>
+      </c>
+      <c r="R12" s="27">
+        <v>-0.64473684210528859</v>
+      </c>
+      <c r="S12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="29">
+        <v>160</v>
+      </c>
+      <c r="C13" s="27">
+        <v>-0.15069593346539989</v>
+      </c>
+      <c r="D13" s="27">
+        <v>-0.15069593346539989</v>
+      </c>
+      <c r="E13" s="27">
+        <v>-1.0471166609903761</v>
+      </c>
+      <c r="F13" s="27">
+        <v>-0.31244352910647422</v>
+      </c>
+      <c r="G13" s="27">
+        <v>-0.27417607037735081</v>
+      </c>
+      <c r="H13" s="32">
+        <v>-0.63243795448128992</v>
+      </c>
+      <c r="I13" s="32">
+        <v>-0.71778224924712219</v>
+      </c>
+      <c r="J13" s="27">
+        <v>-0.68341988864207792</v>
+      </c>
+      <c r="K13" s="27">
+        <v>-0.33681032862628513</v>
+      </c>
+      <c r="L13" s="27">
+        <v>-0.36765752774624616</v>
+      </c>
+      <c r="M13" s="27">
+        <v>-0.58046336150880506</v>
+      </c>
+      <c r="N13" s="27">
+        <v>-0.58046336150880506</v>
+      </c>
+      <c r="O13" s="27">
+        <v>-0.10762634356510148</v>
+      </c>
+      <c r="P13" s="27">
+        <v>4.2377600458792131E-2</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>-0.41435227081237258</v>
+      </c>
+      <c r="R13" s="27">
+        <v>-0.65641285369653701</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="29">
+        <v>176</v>
+      </c>
+      <c r="C14" s="27">
+        <v>-0.78129870666073487</v>
+      </c>
+      <c r="D14" s="27">
+        <v>-0.78129870666073487</v>
+      </c>
+      <c r="E14" s="27">
+        <v>-0.56986132449112858</v>
+      </c>
+      <c r="F14" s="27">
+        <v>-1.0126639940838089</v>
+      </c>
+      <c r="G14" s="27">
+        <v>-1.1679024052543951</v>
+      </c>
+      <c r="H14" s="32">
+        <v>-0.46229737866815412</v>
+      </c>
+      <c r="I14" s="32">
+        <v>-1.0206139030996155</v>
+      </c>
+      <c r="J14" s="32">
+        <v>-0.12321025219065973</v>
+      </c>
+      <c r="K14" s="27">
+        <v>-6.672141633953288E-2</v>
+      </c>
+      <c r="L14" s="27">
+        <v>-0.82805308042088654</v>
+      </c>
+      <c r="M14" s="27">
+        <v>-0.38273758528501389</v>
+      </c>
+      <c r="N14" s="27">
+        <v>-0.38273758528501389</v>
+      </c>
+      <c r="O14" s="27">
+        <v>-0.84998819501825551</v>
+      </c>
+      <c r="P14" s="27">
+        <v>4.2377600458792131E-2</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>-7.722743408450583E-2</v>
+      </c>
+      <c r="R14" s="27">
+        <v>-0.21494856077265467</v>
+      </c>
+      <c r="S14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="29">
+        <v>192</v>
+      </c>
+      <c r="C15" s="27">
+        <v>-2.6084491068900206E-2</v>
+      </c>
+      <c r="D15" s="27">
+        <v>-2.6084491068900206E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>-0.84980433443912773</v>
+      </c>
+      <c r="F15" s="27">
+        <v>-0.72395937281142153</v>
+      </c>
+      <c r="G15" s="27">
+        <v>-0.93413275832648424</v>
+      </c>
+      <c r="H15" s="27">
+        <v>-0.20452526867393317</v>
+      </c>
+      <c r="I15" s="27">
+        <v>-0.678768096633803</v>
+      </c>
+      <c r="J15" s="27">
+        <v>-0.46126290481399224</v>
+      </c>
+      <c r="K15" s="27">
+        <v>0.34350183933432277</v>
+      </c>
+      <c r="L15" s="27">
+        <v>-0.34655220312325241</v>
+      </c>
+      <c r="M15" s="27">
+        <v>-0.7564502409979923</v>
+      </c>
+      <c r="N15" s="27">
+        <v>-0.7564502409979923</v>
+      </c>
+      <c r="O15" s="27">
+        <v>-0.63563574400785683</v>
+      </c>
+      <c r="P15" s="27">
+        <v>-0.30035458029394135</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>-7.722743408450583E-2</v>
+      </c>
+      <c r="R15" s="27">
+        <v>-0.64473684210528859</v>
+      </c>
+      <c r="S15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="29">
+        <v>208</v>
+      </c>
+      <c r="C16" s="27">
+        <v>-0.47488637687915514</v>
+      </c>
+      <c r="D16" s="27">
+        <v>-0.47488637687915514</v>
+      </c>
+      <c r="E16" s="27">
+        <v>-0.3542076119488371</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.14374424048938295</v>
+      </c>
+      <c r="G16" s="27">
+        <v>4.4221129893514899E-2</v>
+      </c>
+      <c r="H16" s="27">
+        <v>-1.4971284445891797E-2</v>
+      </c>
+      <c r="I16" s="27">
+        <v>1.9112459312538022E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.10296111292547039</v>
+      </c>
+      <c r="K16" s="27">
+        <v>-0.27168626745012148</v>
+      </c>
+      <c r="L16" s="27">
+        <v>-0.42830318853481231</v>
+      </c>
+      <c r="M16" s="27">
+        <v>-0.37548071320358645</v>
+      </c>
+      <c r="N16" s="27">
+        <v>-0.37548071320358645</v>
+      </c>
+      <c r="O16" s="27">
+        <v>-0.47202886145049661</v>
+      </c>
+      <c r="P16" s="27">
+        <v>-0.25798935984744276</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>-0.29757631576697463</v>
+      </c>
+      <c r="R16" s="27">
+        <v>-0.64473684210528859</v>
+      </c>
+      <c r="S16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="29">
+        <v>224</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>-0.88811188811189368</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-0.35905372540347003</v>
+      </c>
+      <c r="G17" s="27">
+        <v>-0.83697418306556415</v>
+      </c>
+      <c r="H17" s="27">
+        <v>-0.46248723387537893</v>
+      </c>
+      <c r="I17" s="27">
+        <v>-0.73619294524317525</v>
+      </c>
+      <c r="J17" s="27">
+        <v>-0.13194868662185399</v>
+      </c>
+      <c r="K17" s="27">
+        <v>-0.12888511721655505</v>
+      </c>
+      <c r="L17" s="27">
+        <v>-0.52054794520549308</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>0</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="29">
+        <v>240</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>-0.88811188811189368</v>
+      </c>
+      <c r="F18" s="27">
+        <v>-0.35905372540347003</v>
+      </c>
+      <c r="G18" s="27">
+        <v>-0.83697418306556415</v>
+      </c>
+      <c r="H18" s="27">
+        <v>-0.46248723387537893</v>
+      </c>
+      <c r="I18" s="27">
+        <v>-0.73619294524317525</v>
+      </c>
+      <c r="J18" s="27">
+        <v>-0.13194868662185399</v>
+      </c>
+      <c r="K18" s="27">
+        <v>-0.12888511721655505</v>
+      </c>
+      <c r="L18" s="27">
+        <v>-0.52054794520549308</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0</v>
+      </c>
+      <c r="O18" s="27">
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>0</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0</v>
+      </c>
+      <c r="S18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="29">
+        <v>254</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>-0.88811188811189368</v>
+      </c>
+      <c r="F19" s="27">
+        <v>-0.35905372540347003</v>
+      </c>
+      <c r="G19" s="27">
+        <v>-0.83697418306556415</v>
+      </c>
+      <c r="H19" s="27">
+        <v>-0.46248723387537893</v>
+      </c>
+      <c r="I19" s="27">
+        <v>-0.73619294524317525</v>
+      </c>
+      <c r="J19" s="27">
+        <v>-0.13194868662185399</v>
+      </c>
+      <c r="K19" s="27">
+        <v>-0.12888511721655505</v>
+      </c>
+      <c r="L19" s="27">
+        <v>-0.52054794520549308</v>
+      </c>
+      <c r="M19" s="27">
+        <v>0</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0</v>
+      </c>
+      <c r="O19" s="27">
+        <v>0</v>
+      </c>
+      <c r="P19" s="27">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>0</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0</v>
+      </c>
+      <c r="S19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="J22" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="A3:A19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -793,26 +2953,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="13" t="s">
@@ -1129,26 +3289,26 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="29.25" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9" s="19" t="s">
@@ -1486,1088 +3646,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:S4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="19" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B2" s="26"/>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31">
-        <v>16</v>
-      </c>
-      <c r="E2" s="31">
-        <v>32</v>
-      </c>
-      <c r="F2" s="31">
-        <v>48</v>
-      </c>
-      <c r="G2" s="31">
-        <v>64</v>
-      </c>
-      <c r="H2" s="31">
-        <v>80</v>
-      </c>
-      <c r="I2" s="31">
-        <v>96</v>
-      </c>
-      <c r="J2" s="31">
-        <v>112</v>
-      </c>
-      <c r="K2" s="31">
-        <v>128</v>
-      </c>
-      <c r="L2" s="31">
-        <v>144</v>
-      </c>
-      <c r="M2" s="31">
-        <v>160</v>
-      </c>
-      <c r="N2" s="31">
-        <v>176</v>
-      </c>
-      <c r="O2" s="31">
-        <v>192</v>
-      </c>
-      <c r="P2" s="31">
-        <v>208</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>224</v>
-      </c>
-      <c r="R2" s="31">
-        <v>240</v>
-      </c>
-      <c r="S2" s="31">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="28">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27">
-        <v>-0.47826086956521774</v>
-      </c>
-      <c r="N3" s="27">
-        <v>-0.19948231233822611</v>
-      </c>
-      <c r="O3" s="27">
-        <v>-0.4303986238852886</v>
-      </c>
-      <c r="P3" s="27">
-        <v>-0.398900963324337</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>-0.31283981649330883</v>
-      </c>
-      <c r="R3" s="27">
-        <v>-0.71052631578947967</v>
-      </c>
-      <c r="S3" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="29">
-        <v>16</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F4" s="27">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="G4" s="27">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="H4" s="27">
-        <v>-0.35850338287639261</v>
-      </c>
-      <c r="I4" s="27">
-        <v>-0.81578009889279812</v>
-      </c>
-      <c r="J4" s="27">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="K4" s="27">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="L4" s="27">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="M4" s="27">
-        <v>-0.83061339335959516</v>
-      </c>
-      <c r="N4" s="27">
-        <v>-0.86390212335145833</v>
-      </c>
-      <c r="O4" s="27">
-        <v>-0.48303885589668738</v>
-      </c>
-      <c r="P4" s="27">
-        <v>-0.1871013690454788</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>-0.73475020662795032</v>
-      </c>
-      <c r="R4" s="27">
-        <v>-0.72213219616205038</v>
-      </c>
-      <c r="S4" s="27">
-        <v>-1.0129032258064399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="29">
-        <v>32</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F5" s="27">
-        <v>-0.2381162944948052</v>
-      </c>
-      <c r="G5" s="27">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="H5" s="27">
-        <v>-0.65743441714861106</v>
-      </c>
-      <c r="I5" s="27">
-        <v>-0.87105943015939857</v>
-      </c>
-      <c r="J5" s="27">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="K5" s="27">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="L5" s="27">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="M5" s="27">
-        <v>-1.0480940505878209</v>
-      </c>
-      <c r="N5" s="27">
-        <v>-0.97485929538059679</v>
-      </c>
-      <c r="O5" s="27">
-        <v>-0.55214975973281355</v>
-      </c>
-      <c r="P5" s="27">
-        <v>-0.11115041976526641</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>-0.28974995254105806</v>
-      </c>
-      <c r="R5" s="27">
-        <v>-0.79847826322580318</v>
-      </c>
-      <c r="S5" s="27">
-        <v>-0.7672343876723744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="29">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F6" s="27">
-        <v>-0.2381162944948052</v>
-      </c>
-      <c r="G6" s="27">
-        <v>-0.55479328398628525</v>
-      </c>
-      <c r="H6" s="27">
-        <v>-0.28695293652955201</v>
-      </c>
-      <c r="I6" s="27">
-        <v>-0.80904406629132808</v>
-      </c>
-      <c r="J6" s="27">
-        <v>-0.85878875161071022</v>
-      </c>
-      <c r="K6" s="27">
-        <v>-0.85878875161071022</v>
-      </c>
-      <c r="L6" s="27">
-        <v>-0.85878875161071022</v>
-      </c>
-      <c r="M6" s="27">
-        <v>-0.77816979199443637</v>
-      </c>
-      <c r="N6" s="27">
-        <v>-1.054978189533557</v>
-      </c>
-      <c r="O6" s="27">
-        <v>-0.95074931962035691</v>
-      </c>
-      <c r="P6" s="27">
-        <v>-0.45196957556555617</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>-0.90271504008410375</v>
-      </c>
-      <c r="R6" s="27">
-        <v>-0.78698057462190718</v>
-      </c>
-      <c r="S6" s="27">
-        <v>-0.21481088455999497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="29">
-        <v>64</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>-1.100086116357792</v>
-      </c>
-      <c r="F7" s="27">
-        <v>-0.49747702509580805</v>
-      </c>
-      <c r="G7" s="27">
-        <v>-0.53038814128677814</v>
-      </c>
-      <c r="H7" s="27">
-        <v>-0.43500829678534103</v>
-      </c>
-      <c r="I7" s="27">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="J7" s="27">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="K7" s="27">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="L7" s="27">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="M7" s="27">
-        <v>-1.0406690736770798</v>
-      </c>
-      <c r="N7" s="27">
-        <v>-0.30823103504910421</v>
-      </c>
-      <c r="O7" s="32">
-        <v>-0.38935979069339055</v>
-      </c>
-      <c r="P7" s="27">
-        <v>0.1480001454672788</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>-0.50552170153565612</v>
-      </c>
-      <c r="R7" s="27">
-        <v>-0.13879941304608678</v>
-      </c>
-      <c r="S7" s="27">
-        <v>-0.25537325502213548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="29">
-        <v>80</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F8" s="27">
-        <v>-0.2381162944948052</v>
-      </c>
-      <c r="G8" s="27">
-        <v>-0.55479328398628525</v>
-      </c>
-      <c r="H8" s="27">
-        <v>-1.0572707989629961</v>
-      </c>
-      <c r="I8" s="27">
-        <v>-0.17134103228848119</v>
-      </c>
-      <c r="J8" s="27">
-        <v>-0.39330269205515833</v>
-      </c>
-      <c r="K8" s="27">
-        <v>-0.39330269205515833</v>
-      </c>
-      <c r="L8" s="27">
-        <v>-0.39330269205515833</v>
-      </c>
-      <c r="M8" s="27">
-        <v>-0.34675783739932342</v>
-      </c>
-      <c r="N8" s="27">
-        <v>-0.42395526730820166</v>
-      </c>
-      <c r="O8" s="27">
-        <v>-0.63906441369101685</v>
-      </c>
-      <c r="P8" s="27">
-        <v>-0.70628653193153923</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>-0.19480846036441335</v>
-      </c>
-      <c r="R8" s="27">
-        <v>0.29935585342795434</v>
-      </c>
-      <c r="S8" s="27">
-        <v>-5.5154300722279004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="29">
-        <v>96</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F9" s="27">
-        <v>-0.2381162944948052</v>
-      </c>
-      <c r="G9" s="27">
-        <v>-0.55479328398628525</v>
-      </c>
-      <c r="H9" s="27">
-        <v>-1.0572707989629961</v>
-      </c>
-      <c r="I9" s="27">
-        <v>-0.17134103228848119</v>
-      </c>
-      <c r="J9" s="27">
-        <v>-0.43799633475869371</v>
-      </c>
-      <c r="K9" s="27">
-        <v>-0.52517985611510198</v>
-      </c>
-      <c r="L9" s="27">
-        <v>-0.52517985611510198</v>
-      </c>
-      <c r="M9" s="27">
-        <v>-0.87697160883280389</v>
-      </c>
-      <c r="N9" s="27">
-        <v>-0.79102704842802041</v>
-      </c>
-      <c r="O9" s="27">
-        <v>-0.81324563103748915</v>
-      </c>
-      <c r="P9" s="27">
-        <v>-0.38385755553454715</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>-0.6025302663126979</v>
-      </c>
-      <c r="R9" s="27">
-        <v>-7.0380669287573028E-2</v>
-      </c>
-      <c r="S9" s="27">
-        <v>-0.33093525179856442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="29">
-        <v>112</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F10" s="27">
-        <v>-0.2381162944948052</v>
-      </c>
-      <c r="G10" s="27">
-        <v>-0.55479328398628525</v>
-      </c>
-      <c r="H10" s="27">
-        <v>-1.0572707989629961</v>
-      </c>
-      <c r="I10" s="27">
-        <v>-0.17134103228848119</v>
-      </c>
-      <c r="J10" s="27">
-        <v>-0.43799633475869371</v>
-      </c>
-      <c r="K10" s="27">
-        <v>-0.28535058873450225</v>
-      </c>
-      <c r="L10" s="27">
-        <v>-0.5479452054794649</v>
-      </c>
-      <c r="M10" s="27">
-        <v>-0.55472467709040529</v>
-      </c>
-      <c r="N10" s="27">
-        <v>-0.46049170089145264</v>
-      </c>
-      <c r="O10" s="27">
-        <v>-0.61825811000741737</v>
-      </c>
-      <c r="P10" s="27">
-        <v>-0.42094322254229155</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>-0.15046444433025385</v>
-      </c>
-      <c r="R10" s="27">
-        <v>-6.9973245523783589E-2</v>
-      </c>
-      <c r="S10" s="27">
-        <v>-1.5625E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="29">
-        <v>128</v>
-      </c>
-      <c r="C11" s="27">
-        <v>-0.46040213377103179</v>
-      </c>
-      <c r="D11" s="27">
-        <v>-0.46040213377103179</v>
-      </c>
-      <c r="E11" s="27">
-        <v>-0.97720028715003693</v>
-      </c>
-      <c r="F11" s="27">
-        <v>-1.1473988322539412</v>
-      </c>
-      <c r="G11" s="27">
-        <v>-0.43359980978306822</v>
-      </c>
-      <c r="H11" s="27">
-        <v>-1.0140291126854066</v>
-      </c>
-      <c r="I11" s="27">
-        <v>-0.83756936382474123</v>
-      </c>
-      <c r="J11" s="27">
-        <v>-0.15452816864272734</v>
-      </c>
-      <c r="K11" s="27">
-        <v>-0.71647215303974576</v>
-      </c>
-      <c r="L11" s="27">
-        <v>-0.12926462216560708</v>
-      </c>
-      <c r="M11" s="27">
-        <v>-0.55929421419779146</v>
-      </c>
-      <c r="N11" s="27">
-        <v>-0.3756686798964779</v>
-      </c>
-      <c r="O11" s="27">
-        <v>-0.79095734312244304</v>
-      </c>
-      <c r="P11" s="27">
-        <v>4.2377600458792131E-2</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>-7.722743408450583E-2</v>
-      </c>
-      <c r="R11" s="27">
-        <v>-0.64473684210528859</v>
-      </c>
-      <c r="S11" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="29">
-        <v>144</v>
-      </c>
-      <c r="C12" s="27">
-        <v>-0.28991367063708395</v>
-      </c>
-      <c r="D12" s="27">
-        <v>-0.28991367063708395</v>
-      </c>
-      <c r="E12" s="27">
-        <v>-0.3881074707319101</v>
-      </c>
-      <c r="F12" s="27">
-        <v>-0.90949127453497169</v>
-      </c>
-      <c r="G12" s="27">
-        <v>-0.93875858960589653</v>
-      </c>
-      <c r="H12" s="27">
-        <v>-0.54119832430714609</v>
-      </c>
-      <c r="I12" s="27">
-        <v>-0.72255706821978549</v>
-      </c>
-      <c r="J12" s="27">
-        <v>-0.63372265029140351</v>
-      </c>
-      <c r="K12" s="27">
-        <v>-0.53617937733278609</v>
-      </c>
-      <c r="L12" s="27">
-        <v>-0.358564000138756</v>
-      </c>
-      <c r="M12" s="27">
-        <v>-0.56999235056278508</v>
-      </c>
-      <c r="N12" s="27">
-        <v>-0.56999235056278508</v>
-      </c>
-      <c r="O12" s="27">
-        <v>-0.79095734312244304</v>
-      </c>
-      <c r="P12" s="27">
-        <v>4.2377600458792131E-2</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>-7.722743408450583E-2</v>
-      </c>
-      <c r="R12" s="27">
-        <v>-0.64473684210528859</v>
-      </c>
-      <c r="S12" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="29">
-        <v>160</v>
-      </c>
-      <c r="C13" s="27">
-        <v>-0.15069593346539989</v>
-      </c>
-      <c r="D13" s="27">
-        <v>-0.15069593346539989</v>
-      </c>
-      <c r="E13" s="27">
-        <v>-1.0471166609903761</v>
-      </c>
-      <c r="F13" s="27">
-        <v>-0.31244352910647422</v>
-      </c>
-      <c r="G13" s="27">
-        <v>-0.27417607037735081</v>
-      </c>
-      <c r="H13" s="32">
-        <v>-0.63243795448128992</v>
-      </c>
-      <c r="I13" s="32">
-        <v>-0.71778224924712219</v>
-      </c>
-      <c r="J13" s="27">
-        <v>-0.68341988864207792</v>
-      </c>
-      <c r="K13" s="27">
-        <v>-0.33681032862628513</v>
-      </c>
-      <c r="L13" s="27">
-        <v>-0.36765752774624616</v>
-      </c>
-      <c r="M13" s="27">
-        <v>-0.58046336150880506</v>
-      </c>
-      <c r="N13" s="27">
-        <v>-0.58046336150880506</v>
-      </c>
-      <c r="O13" s="27">
-        <v>-0.10762634356510148</v>
-      </c>
-      <c r="P13" s="27">
-        <v>4.2377600458792131E-2</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>-0.41435227081237258</v>
-      </c>
-      <c r="R13" s="27">
-        <v>-0.65641285369653701</v>
-      </c>
-      <c r="S13" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="29">
-        <v>176</v>
-      </c>
-      <c r="C14" s="27">
-        <v>-0.78129870666073487</v>
-      </c>
-      <c r="D14" s="27">
-        <v>-0.78129870666073487</v>
-      </c>
-      <c r="E14" s="27">
-        <v>-0.56986132449112858</v>
-      </c>
-      <c r="F14" s="27">
-        <v>-1.0126639940838089</v>
-      </c>
-      <c r="G14" s="27">
-        <v>-1.1679024052543951</v>
-      </c>
-      <c r="H14" s="32">
-        <v>-0.46229737866815412</v>
-      </c>
-      <c r="I14" s="32">
-        <v>-1.0206139030996155</v>
-      </c>
-      <c r="J14" s="32">
-        <v>-0.12321025219065973</v>
-      </c>
-      <c r="K14" s="27">
-        <v>-6.672141633953288E-2</v>
-      </c>
-      <c r="L14" s="27">
-        <v>-0.82805308042088654</v>
-      </c>
-      <c r="M14" s="27">
-        <v>-0.38273758528501389</v>
-      </c>
-      <c r="N14" s="27">
-        <v>-0.38273758528501389</v>
-      </c>
-      <c r="O14" s="27">
-        <v>-0.84998819501825551</v>
-      </c>
-      <c r="P14" s="27">
-        <v>4.2377600458792131E-2</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>-7.722743408450583E-2</v>
-      </c>
-      <c r="R14" s="27">
-        <v>-0.21494856077265467</v>
-      </c>
-      <c r="S14" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="29">
-        <v>192</v>
-      </c>
-      <c r="C15" s="27">
-        <v>-2.6084491068900206E-2</v>
-      </c>
-      <c r="D15" s="27">
-        <v>-2.6084491068900206E-2</v>
-      </c>
-      <c r="E15" s="27">
-        <v>-0.84980433443912773</v>
-      </c>
-      <c r="F15" s="27">
-        <v>-0.72395937281142153</v>
-      </c>
-      <c r="G15" s="27">
-        <v>-0.93413275832648424</v>
-      </c>
-      <c r="H15" s="27">
-        <v>-0.20452526867393317</v>
-      </c>
-      <c r="I15" s="27">
-        <v>-0.678768096633803</v>
-      </c>
-      <c r="J15" s="27">
-        <v>-0.46126290481399224</v>
-      </c>
-      <c r="K15" s="27">
-        <v>0.34350183933432277</v>
-      </c>
-      <c r="L15" s="27">
-        <v>-0.34655220312325241</v>
-      </c>
-      <c r="M15" s="27">
-        <v>-0.7564502409979923</v>
-      </c>
-      <c r="N15" s="27">
-        <v>-0.7564502409979923</v>
-      </c>
-      <c r="O15" s="27">
-        <v>-0.63563574400785683</v>
-      </c>
-      <c r="P15" s="27">
-        <v>-0.30035458029394135</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>-7.722743408450583E-2</v>
-      </c>
-      <c r="R15" s="27">
-        <v>-0.64473684210528859</v>
-      </c>
-      <c r="S15" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="29">
-        <v>208</v>
-      </c>
-      <c r="C16" s="27">
-        <v>-0.47488637687915514</v>
-      </c>
-      <c r="D16" s="27">
-        <v>-0.47488637687915514</v>
-      </c>
-      <c r="E16" s="27">
-        <v>-0.3542076119488371</v>
-      </c>
-      <c r="F16" s="27">
-        <v>0.14374424048938295</v>
-      </c>
-      <c r="G16" s="27">
-        <v>4.4221129893514899E-2</v>
-      </c>
-      <c r="H16" s="27">
-        <v>-1.4971284445891797E-2</v>
-      </c>
-      <c r="I16" s="27">
-        <v>1.9112459312538022E-2</v>
-      </c>
-      <c r="J16" s="27">
-        <v>0.10296111292547039</v>
-      </c>
-      <c r="K16" s="27">
-        <v>-0.27168626745012148</v>
-      </c>
-      <c r="L16" s="27">
-        <v>-0.42830318853481231</v>
-      </c>
-      <c r="M16" s="27">
-        <v>-0.37548071320358645</v>
-      </c>
-      <c r="N16" s="27">
-        <v>-0.37548071320358645</v>
-      </c>
-      <c r="O16" s="27">
-        <v>-0.47202886145049661</v>
-      </c>
-      <c r="P16" s="27">
-        <v>-0.25798935984744276</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>-0.29757631576697463</v>
-      </c>
-      <c r="R16" s="27">
-        <v>-0.64473684210528859</v>
-      </c>
-      <c r="S16" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="29">
-        <v>224</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>-0.88811188811189368</v>
-      </c>
-      <c r="F17" s="27">
-        <v>-0.35905372540347003</v>
-      </c>
-      <c r="G17" s="27">
-        <v>-0.83697418306556415</v>
-      </c>
-      <c r="H17" s="27">
-        <v>-0.46248723387537893</v>
-      </c>
-      <c r="I17" s="27">
-        <v>-0.73619294524317525</v>
-      </c>
-      <c r="J17" s="27">
-        <v>-0.13194868662185399</v>
-      </c>
-      <c r="K17" s="27">
-        <v>-0.12888511721655505</v>
-      </c>
-      <c r="L17" s="27">
-        <v>-0.52054794520549308</v>
-      </c>
-      <c r="M17" s="27">
-        <v>0</v>
-      </c>
-      <c r="N17" s="27">
-        <v>0</v>
-      </c>
-      <c r="O17" s="27">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="Q17" s="27">
-        <v>0</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0</v>
-      </c>
-      <c r="S17" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="29">
-        <v>240</v>
-      </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="27">
-        <v>-0.88811188811189368</v>
-      </c>
-      <c r="F18" s="27">
-        <v>-0.35905372540347003</v>
-      </c>
-      <c r="G18" s="27">
-        <v>-0.83697418306556415</v>
-      </c>
-      <c r="H18" s="27">
-        <v>-0.46248723387537893</v>
-      </c>
-      <c r="I18" s="27">
-        <v>-0.73619294524317525</v>
-      </c>
-      <c r="J18" s="27">
-        <v>-0.13194868662185399</v>
-      </c>
-      <c r="K18" s="27">
-        <v>-0.12888511721655505</v>
-      </c>
-      <c r="L18" s="27">
-        <v>-0.52054794520549308</v>
-      </c>
-      <c r="M18" s="27">
-        <v>0</v>
-      </c>
-      <c r="N18" s="27">
-        <v>0</v>
-      </c>
-      <c r="O18" s="27">
-        <v>0</v>
-      </c>
-      <c r="P18" s="27">
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>0</v>
-      </c>
-      <c r="R18" s="27">
-        <v>0</v>
-      </c>
-      <c r="S18" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="29">
-        <v>254</v>
-      </c>
-      <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
-        <v>0</v>
-      </c>
-      <c r="E19" s="27">
-        <v>-0.88811188811189368</v>
-      </c>
-      <c r="F19" s="27">
-        <v>-0.35905372540347003</v>
-      </c>
-      <c r="G19" s="27">
-        <v>-0.83697418306556415</v>
-      </c>
-      <c r="H19" s="27">
-        <v>-0.46248723387537893</v>
-      </c>
-      <c r="I19" s="27">
-        <v>-0.73619294524317525</v>
-      </c>
-      <c r="J19" s="27">
-        <v>-0.13194868662185399</v>
-      </c>
-      <c r="K19" s="27">
-        <v>-0.12888511721655505</v>
-      </c>
-      <c r="L19" s="27">
-        <v>-0.52054794520549308</v>
-      </c>
-      <c r="M19" s="27">
-        <v>0</v>
-      </c>
-      <c r="N19" s="27">
-        <v>0</v>
-      </c>
-      <c r="O19" s="27">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="Q19" s="27">
-        <v>0</v>
-      </c>
-      <c r="R19" s="27">
-        <v>0</v>
-      </c>
-      <c r="S19" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="J22" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="A3:A19"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>